--- a/data/trans_orig/P78_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27764D02-09AA-4C62-8630-5E92C4CEABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BED6831-EE9E-41BC-8B88-C2B574A44F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFE5C6FB-CD56-4D58-A1C0-D6DD9ED6BBFF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9735C1D-273C-4918-8AC5-18C98877CF17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="320">
   <si>
     <t>Población según número de retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -362,646 +362,643 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A1D544-1D10-4549-8D91-6F37D346473F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5942B5C-42DC-47C1-83A6-8D9C70D0A9EF}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4691,7 +4688,7 @@
         <v>6511</v>
       </c>
       <c r="N65" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>15</v>
@@ -4742,7 +4739,7 @@
         <v>6511</v>
       </c>
       <c r="N66" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>17</v>
@@ -4780,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C69744D-3F6D-4D4E-884D-B67BE5F9652D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FDF1F5-C74F-4538-A380-96193985F5CB}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8105,7 +8102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E333A230-CD00-48A6-B84E-8EFF40EDABA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A7DAC-6DDC-4EE3-ADB2-1A4C2C401217}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11472,7 +11469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BE2B3-5635-4465-B282-9801DD0FCCA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFC1D81-3D8D-4F87-9227-E27641CCB04C}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11833,7 +11830,7 @@
         <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>117</v>
@@ -11887,7 +11884,7 @@
         <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11961,7 +11958,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -11976,7 +11973,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11991,7 +11988,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12012,7 +12009,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -12027,7 +12024,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -12042,7 +12039,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12063,7 +12060,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -12078,7 +12075,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -12087,13 +12084,13 @@
         <v>5110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12108,13 +12105,13 @@
         <v>11551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -12123,13 +12120,13 @@
         <v>5835</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -12138,13 +12135,13 @@
         <v>17386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12159,13 +12156,13 @@
         <v>34855</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -12174,13 +12171,13 @@
         <v>23688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M15" s="7">
         <v>52</v>
@@ -12189,13 +12186,13 @@
         <v>58543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12210,13 +12207,13 @@
         <v>462441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>672</v>
@@ -12225,13 +12222,13 @@
         <v>515487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>1018</v>
@@ -12240,13 +12237,13 @@
         <v>977927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12350,7 +12347,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12401,7 +12398,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12452,7 +12449,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12473,7 +12470,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -12482,13 +12479,13 @@
         <v>5237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -12500,10 +12497,10 @@
         <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12518,13 +12515,13 @@
         <v>6089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -12533,13 +12530,13 @@
         <v>10671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -12548,13 +12545,13 @@
         <v>16760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12569,13 +12566,13 @@
         <v>315119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>514</v>
@@ -12584,13 +12581,13 @@
         <v>356142</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>864</v>
@@ -12599,13 +12596,13 @@
         <v>671261</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12679,7 +12676,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12730,7 +12727,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -12745,7 +12742,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -12754,13 +12751,13 @@
         <v>637</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12775,13 +12772,13 @@
         <v>1523</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -12790,13 +12787,13 @@
         <v>976</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -12805,13 +12802,13 @@
         <v>2499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12832,7 +12829,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -12841,13 +12838,13 @@
         <v>4411</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -12859,10 +12856,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12877,13 +12874,13 @@
         <v>24797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -12892,13 +12889,13 @@
         <v>19198</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -12907,13 +12904,13 @@
         <v>43995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12928,13 +12925,13 @@
         <v>288984</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>557</v>
@@ -12943,13 +12940,13 @@
         <v>397992</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>824</v>
@@ -12958,13 +12955,13 @@
         <v>686977</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13053,7 +13050,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -13104,7 +13101,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -13155,7 +13152,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -13206,7 +13203,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -13242,7 +13239,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -13251,13 +13248,13 @@
         <v>3140</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -13266,13 +13263,13 @@
         <v>4653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13290,7 +13287,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>15</v>
@@ -13302,13 +13299,13 @@
         <v>252203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="M37" s="7">
         <v>759</v>
@@ -13317,13 +13314,13 @@
         <v>445327</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13397,7 +13394,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -13412,7 +13409,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -13427,7 +13424,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13448,7 +13445,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -13463,7 +13460,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -13478,7 +13475,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13499,7 +13496,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -13514,7 +13511,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -13529,7 +13526,7 @@
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13550,7 +13547,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -13565,7 +13562,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -13580,7 +13577,7 @@
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13601,7 +13598,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H43" s="7">
         <v>8</v>
@@ -13610,13 +13607,13 @@
         <v>4796</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7">
         <v>10</v>
@@ -13625,13 +13622,13 @@
         <v>6517</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13646,10 +13643,10 @@
         <v>273533</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>94</v>
@@ -13661,10 +13658,10 @@
         <v>269397</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>236</v>
@@ -13765,13 +13762,13 @@
         <v>729</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -13780,13 +13777,13 @@
         <v>729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13867,13 +13864,13 @@
         <v>159</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -13882,7 +13879,7 @@
         <v>159</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
@@ -13903,13 +13900,13 @@
         <v>3429</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
@@ -13918,13 +13915,13 @@
         <v>4471</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M49" s="7">
         <v>11</v>
@@ -13933,13 +13930,13 @@
         <v>7900</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13954,13 +13951,13 @@
         <v>16774</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H50" s="7">
         <v>49</v>
@@ -13969,13 +13966,13 @@
         <v>40323</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M50" s="7">
         <v>66</v>
@@ -13984,13 +13981,13 @@
         <v>57097</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14005,13 +14002,13 @@
         <v>592514</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H51" s="7">
         <v>888</v>
@@ -14020,13 +14017,13 @@
         <v>747684</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M51" s="7">
         <v>1454</v>
@@ -14035,13 +14032,13 @@
         <v>1340197</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14130,7 +14127,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -14145,7 +14142,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14181,7 +14178,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -14196,7 +14193,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14217,7 +14214,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
@@ -14226,13 +14223,13 @@
         <v>4096</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -14241,13 +14238,13 @@
         <v>7135</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14262,13 +14259,13 @@
         <v>78400</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H56" s="7">
         <v>93</v>
@@ -14277,13 +14274,13 @@
         <v>73720</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M56" s="7">
         <v>169</v>
@@ -14292,13 +14289,13 @@
         <v>152119</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14313,13 +14310,13 @@
         <v>197951</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H57" s="7">
         <v>282</v>
@@ -14328,13 +14325,13 @@
         <v>225150</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M57" s="7">
         <v>478</v>
@@ -14343,13 +14340,13 @@
         <v>423101</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14364,13 +14361,13 @@
         <v>568153</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H58" s="7">
         <v>666</v>
@@ -14379,13 +14376,13 @@
         <v>547020</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M58" s="7">
         <v>1147</v>
@@ -14394,13 +14391,13 @@
         <v>1115173</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14483,13 +14480,13 @@
         <v>1425</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -14498,7 +14495,7 @@
         <v>1425</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>10</v>
@@ -14537,10 +14534,10 @@
         <v>63</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -14552,10 +14549,10 @@
         <v>64</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14573,10 +14570,10 @@
         <v>30</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="H62" s="7">
         <v>9</v>
@@ -14585,13 +14582,13 @@
         <v>6799</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="M62" s="7">
         <v>15</v>
@@ -14600,13 +14597,13 @@
         <v>16873</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14621,13 +14618,13 @@
         <v>96141</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H63" s="7">
         <v>121</v>
@@ -14636,13 +14633,13 @@
         <v>94914</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M63" s="7">
         <v>211</v>
@@ -14651,13 +14648,13 @@
         <v>191055</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14672,13 +14669,13 @@
         <v>289004</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H64" s="7">
         <v>422</v>
@@ -14687,13 +14684,13 @@
         <v>328207</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M64" s="7">
         <v>695</v>
@@ -14702,13 +14699,13 @@
         <v>617211</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P64" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14723,13 +14720,13 @@
         <v>2945226</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H65" s="7">
         <v>4762</v>
@@ -14738,13 +14735,13 @@
         <v>3354587</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M65" s="7">
         <v>7737</v>
@@ -14753,13 +14750,13 @@
         <v>6299813</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BED6831-EE9E-41BC-8B88-C2B574A44F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89CD1B4-5A1B-4BCC-BE6D-2FD1D02690C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9735C1D-273C-4918-8AC5-18C98877CF17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FCCDE5D-9330-4F1E-B425-AC8DEE2FCEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -299,7 +299,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Población según número de retrasos en pagos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según número de retrasos en pagos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5942B5C-42DC-47C1-83A6-8D9C70D0A9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D417F4A-5E7D-4D90-B479-6EDB2963FB3F}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4658,7 +4658,7 @@
         <v>3214</v>
       </c>
       <c r="D65" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>15</v>
@@ -4709,7 +4709,7 @@
         <v>3214</v>
       </c>
       <c r="D66" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>17</v>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FDF1F5-C74F-4538-A380-96193985F5CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D906A-0D84-4367-A054-A589997CC2B6}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8102,7 +8102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A7DAC-6DDC-4EE3-ADB2-1A4C2C401217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED96460-4D4A-46D9-B4A6-D9ED9F71DE05}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11469,7 +11469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFC1D81-3D8D-4F87-9227-E27641CCB04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9C1546-5905-4E4C-A499-28E6715B5D64}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
